--- a/backend/web/pdf/Anchor.xlsx
+++ b/backend/web/pdf/Anchor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t xml:space="preserve">Sr.No.	</t>
   </si>
@@ -26,10 +26,10 @@
     <t xml:space="preserve">Item Details	</t>
   </si>
   <si>
-    <t xml:space="preserve">Size	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core	</t>
+    <t xml:space="preserve">Type of Fitting	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacity of Fitting	</t>
   </si>
   <si>
     <t xml:space="preserve">Units	</t>
@@ -59,19 +59,19 @@
     <t>WESTERN COMMAND CE WC AND CE JALANDHAR ZONE - MES CWE JALANDHAR - MES GE (EAST) JALANDHAR CANTT - MES</t>
   </si>
   <si>
-    <t>E/M,Electrical,LT,Cables,Aluminium,Armoured</t>
-  </si>
-  <si>
-    <t>16 Sqmm</t>
-  </si>
-  <si>
-    <t>2 Core</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAVELLS,Polycab,Anchor,Plaza,CCI,UNIVERSAL,FINOLEX,ASIAN CABLE,KEI INDUSTRIES LTD,GLOSTER,NICCO,RPG CABLE,RHINO,PARAGON,PARAMOUNT,GRANDLAY ELECTRICAL,EON,HPL,industrial cable ,CABCOM CABLES,RALLISON,PARAFLEX,DIAMOND,SS CABLE,HEAT FLEX,BONTON,HIND INDUSTRIES,WINDSOR,GEMSCAB,ALCON WIRES AND CABLE,ICL,SHALABH,KALINGA </t>
+    <t>E/M,Electrical,LT,Lighting</t>
+  </si>
+  <si>
+    <t>SECURITY LIGHT</t>
+  </si>
+  <si>
+    <t>25 Watt</t>
+  </si>
+  <si>
+    <t>NOS</t>
+  </si>
+  <si>
+    <t>C&amp;S,Havells,Surya ,CROMPTON,PHILIPS,BAJAJ,OSRAM,BIRLA POWER,HPL,SYSKA LED,HALONIX,EON,HI-TECH,INSTA POWER,ORISON,POLYCAB,ADHUNIK,BENLO,KALINGA ,ELEKTRON,ESS ESS KAY,ANCHOR,MIC,JAIN INDUSTRIES LIGHTING CORP,GOLDWIN,IMPERIAL</t>
   </si>
   <si>
     <t>M/s SANDEEP JHANJI CONSTRUCTIONS</t>
@@ -90,74 +90,13 @@
     <t>c@gmail.com</t>
   </si>
   <si>
-    <t>4 Core</t>
-  </si>
-  <si>
-    <t>WESTERN COMMAND CE WC and CE DELHI ZONE-MES CWE NEW DELHI-MES GE NEW DELHI-MES</t>
-  </si>
-  <si>
-    <t>E/M,Electrical,LT,Cables,Aluminium,Unarmoured</t>
-  </si>
-  <si>
-    <t>10 Sqmm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAVELLS,Polycab,Anchor,Plaza,CCI,UNIVERSAL,FINOLEX,ASIAN CABLE,KEI INDUSTRIES LTD,GLOSTER,NICCO,RPG CABLE,RHINO,PARAGON,PARAMOUNT,GRANDLAY ELECTRICAL,EON,HPL,industrial cable ,CABCOM CABLES,RALLISON,PARAFLEX,DIAMOND,SS CABLE,HEAT FLEX,BONTON,HIND INDUSTRIES,WINDSOR,GEMSCAB,ALCON WIRES AND CABLE,SHALABH,KALINGA </t>
-  </si>
-  <si>
-    <t>M/s MG GROUP</t>
-  </si>
-  <si>
-    <t>Sh. Mohit Yadav</t>
-  </si>
-  <si>
-    <t>368/11, SAMAYPUR
-DELHI-110042</t>
-  </si>
-  <si>
-    <t>mohitgurmeet@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WESTERN COMMAND CE WC and CE(AF) WAC PALAM-MES CWE (AF) Bikaner-MES </t>
-  </si>
-  <si>
-    <t>25 Sqmm</t>
-  </si>
-  <si>
-    <t>HAVELLS,Polycab,Anchor,CCI,UNIVERSAL,FINOLEX,ASIAN CABLE,KEI INDUSTRIES LTD,NICCO,DIAMOND,HIND INDUSTRIES</t>
-  </si>
-  <si>
-    <t>M/S SHRI SAI CONSTRUCTION COMPANY</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>WARD NO 29 RCP GURDWARA ROAD, SURATGARH-335804 (RAJ)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>aaa@gmail.com</t>
-  </si>
-  <si>
-    <t>50 Sqmm</t>
-  </si>
-  <si>
-    <t>3.5 Core</t>
-  </si>
-  <si>
-    <t>95 Sqmm</t>
-  </si>
-  <si>
-    <t>150 Sqmm</t>
-  </si>
-  <si>
-    <t>240 Sqmm</t>
-  </si>
-  <si>
-    <t>400 Sqmm</t>
+    <t>CEILING LIGHTS</t>
+  </si>
+  <si>
+    <t>34 Watt</t>
+  </si>
+  <si>
+    <t>ADHUNIK,ANCHOR,BAJAJ,BENLO,BIRLA POWER,C&amp;S,CROMPTON,ELEKTRON,EON,ESS ESS KAY,GOLDWIN,HALONIX,Havells,HI-TECH,HPL,IMPERIAL,INSTA POWER,JAIN INDUSTRIES LIGHTING CORP,KALINGA ,MIC,ORISON,OSRAM,PHILIPS,POLYCAB,Surya ,SYSKA LED</t>
   </si>
 </sst>
 </file>
@@ -514,7 +453,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:M1"/>
@@ -524,17 +463,17 @@
   <cols>
     <col min="1" max="1" width="12.425537" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="120.256348" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="54.129639" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="27.13623" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="33.563232" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.854492" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="15.710449" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="100" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="33.563232" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="62.41333" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="36.419678" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="23.708496" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -598,7 +537,7 @@
         <v>17</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -624,229 +563,21 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>300</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>9971882797</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>1350</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>500</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>400</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>2600</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
